--- a/data/raw/election/voters-age-sex-education/2023/Adıyaman.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Adıyaman.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="38">
   <si>
     <t>Adıyaman</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Tut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -674,11 +681,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K179" sqref="K179"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162:K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,52 +1042,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1125,14 +1141,14 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>3.2120000000000002</v>
-      </c>
-      <c r="H6" s="4">
-        <v>9.8049999999999997</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.677</v>
+      <c r="G6" s="5">
+        <v>3212</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9805</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1677</v>
       </c>
       <c r="J6" s="4">
         <v>22</v>
@@ -1143,8 +1159,8 @@
       <c r="L6" s="4">
         <v>76</v>
       </c>
-      <c r="M6" s="5">
-        <v>14.877000000000001</v>
+      <c r="M6" s="6">
+        <v>14877</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1164,14 +1180,14 @@
       <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
-        <v>2.681</v>
-      </c>
-      <c r="H7" s="4">
-        <v>9.66</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.214</v>
+      <c r="G7" s="5">
+        <v>2681</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9660</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2214</v>
       </c>
       <c r="J7" s="4">
         <v>16</v>
@@ -1182,8 +1198,8 @@
       <c r="L7" s="4">
         <v>32</v>
       </c>
-      <c r="M7" s="5">
-        <v>14.707000000000001</v>
+      <c r="M7" s="6">
+        <v>14707</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1205,14 +1221,14 @@
       <c r="F8" s="4">
         <v>70</v>
       </c>
-      <c r="G8" s="4">
-        <v>2.258</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.375</v>
+      <c r="G8" s="5">
+        <v>2258</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3892</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4375</v>
       </c>
       <c r="J8" s="4">
         <v>355</v>
@@ -1223,8 +1239,8 @@
       <c r="L8" s="4">
         <v>42</v>
       </c>
-      <c r="M8" s="5">
-        <v>11.073</v>
+      <c r="M8" s="6">
+        <v>11073</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1244,14 +1260,14 @@
       <c r="F9" s="4">
         <v>92</v>
       </c>
-      <c r="G9" s="4">
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.9169999999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.8710000000000004</v>
+      <c r="G9" s="5">
+        <v>2184</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2917</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4871</v>
       </c>
       <c r="J9" s="4">
         <v>359</v>
@@ -1262,8 +1278,8 @@
       <c r="L9" s="4">
         <v>39</v>
       </c>
-      <c r="M9" s="5">
-        <v>10.709</v>
+      <c r="M9" s="6">
+        <v>10709</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1282,17 +1298,17 @@
       <c r="E10" s="4">
         <v>46</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.4489999999999998</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.7960000000000003</v>
+      <c r="F10" s="5">
+        <v>1120</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1400</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3449</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4796</v>
       </c>
       <c r="J10" s="4">
         <v>631</v>
@@ -1303,8 +1319,8 @@
       <c r="L10" s="4">
         <v>37</v>
       </c>
-      <c r="M10" s="5">
-        <v>11.57</v>
+      <c r="M10" s="6">
+        <v>11570</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1321,17 +1337,17 @@
       <c r="E11" s="4">
         <v>155</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2.605</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.0259999999999998</v>
+      <c r="F11" s="5">
+        <v>1619</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1057</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2605</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4026</v>
       </c>
       <c r="J11" s="4">
         <v>439</v>
@@ -1342,8 +1358,8 @@
       <c r="L11" s="4">
         <v>36</v>
       </c>
-      <c r="M11" s="5">
-        <v>10.233000000000001</v>
+      <c r="M11" s="6">
+        <v>10233</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,17 +1378,17 @@
       <c r="E12" s="4">
         <v>373</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.502</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.6890000000000001</v>
+      <c r="F12" s="5">
+        <v>1502</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1059</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3771</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3689</v>
       </c>
       <c r="J12" s="4">
         <v>622</v>
@@ -1383,8 +1399,8 @@
       <c r="L12" s="4">
         <v>40</v>
       </c>
-      <c r="M12" s="5">
-        <v>11.185</v>
+      <c r="M12" s="6">
+        <v>11185</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1398,20 +1414,20 @@
       <c r="D13" s="4">
         <v>149</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.476</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.78</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.087</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.8180000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.3889999999999998</v>
+      <c r="E13" s="5">
+        <v>1476</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1780</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1087</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2818</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2389</v>
       </c>
       <c r="J13" s="4">
         <v>240</v>
@@ -1422,8 +1438,8 @@
       <c r="L13" s="4">
         <v>39</v>
       </c>
-      <c r="M13" s="5">
-        <v>10.068</v>
+      <c r="M13" s="6">
+        <v>10068</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1442,17 +1458,17 @@
       <c r="E14" s="4">
         <v>696</v>
       </c>
-      <c r="F14" s="4">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.732</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.6829999999999998</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.7090000000000001</v>
+      <c r="F14" s="5">
+        <v>1223</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1732</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3683</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2709</v>
       </c>
       <c r="J14" s="4">
         <v>614</v>
@@ -1463,8 +1479,8 @@
       <c r="L14" s="4">
         <v>48</v>
       </c>
-      <c r="M14" s="5">
-        <v>10.821999999999999</v>
+      <c r="M14" s="6">
+        <v>10822</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1478,20 +1494,20 @@
       <c r="D15" s="4">
         <v>128</v>
       </c>
-      <c r="E15" s="4">
-        <v>2.4809999999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.421</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.5169999999999999</v>
+      <c r="E15" s="5">
+        <v>2481</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1421</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1628</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2436</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1517</v>
       </c>
       <c r="J15" s="4">
         <v>207</v>
@@ -1502,8 +1518,8 @@
       <c r="L15" s="4">
         <v>41</v>
       </c>
-      <c r="M15" s="5">
-        <v>9.9659999999999993</v>
+      <c r="M15" s="6">
+        <v>9966</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1522,17 +1538,17 @@
       <c r="E16" s="4">
         <v>777</v>
       </c>
-      <c r="F16" s="4">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2</v>
+      <c r="F16" s="5">
+        <v>1281</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1455</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2790</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2000</v>
       </c>
       <c r="J16" s="4">
         <v>296</v>
@@ -1543,8 +1559,8 @@
       <c r="L16" s="4">
         <v>46</v>
       </c>
-      <c r="M16" s="5">
-        <v>8.7569999999999997</v>
+      <c r="M16" s="6">
+        <v>8757</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1558,17 +1574,17 @@
       <c r="D17" s="4">
         <v>176</v>
       </c>
-      <c r="E17" s="4">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.7649999999999999</v>
+      <c r="E17" s="5">
+        <v>2470</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1296</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1346</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1765</v>
       </c>
       <c r="I17" s="4">
         <v>782</v>
@@ -1582,8 +1598,8 @@
       <c r="L17" s="4">
         <v>43</v>
       </c>
-      <c r="M17" s="5">
-        <v>8.0470000000000006</v>
+      <c r="M17" s="6">
+        <v>8047</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1602,17 +1618,17 @@
       <c r="E18" s="4">
         <v>884</v>
       </c>
-      <c r="F18" s="4">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.66</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.0710000000000002</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.161</v>
+      <c r="F18" s="5">
+        <v>1505</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1660</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2071</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1161</v>
       </c>
       <c r="J18" s="4">
         <v>137</v>
@@ -1623,8 +1639,8 @@
       <c r="L18" s="4">
         <v>34</v>
       </c>
-      <c r="M18" s="5">
-        <v>7.5380000000000003</v>
+      <c r="M18" s="6">
+        <v>7538</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,17 +1654,17 @@
       <c r="D19" s="4">
         <v>311</v>
       </c>
-      <c r="E19" s="4">
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.028</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1.101</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1.4259999999999999</v>
+      <c r="E19" s="5">
+        <v>2429</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1028</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1101</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1426</v>
       </c>
       <c r="I19" s="4">
         <v>374</v>
@@ -1662,8 +1678,8 @@
       <c r="L19" s="4">
         <v>39</v>
       </c>
-      <c r="M19" s="5">
-        <v>6.9669999999999996</v>
+      <c r="M19" s="6">
+        <v>6967</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1679,17 +1695,17 @@
       <c r="D20" s="4">
         <v>35</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.256</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.57</v>
+      <c r="E20" s="5">
+        <v>1205</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1256</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1467</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1570</v>
       </c>
       <c r="I20" s="4">
         <v>739</v>
@@ -1703,8 +1719,8 @@
       <c r="L20" s="4">
         <v>42</v>
       </c>
-      <c r="M20" s="5">
-        <v>6.4420000000000002</v>
+      <c r="M20" s="6">
+        <v>6442</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,8 +1734,8 @@
       <c r="D21" s="4">
         <v>474</v>
       </c>
-      <c r="E21" s="4">
-        <v>2.0979999999999999</v>
+      <c r="E21" s="5">
+        <v>2098</v>
       </c>
       <c r="F21" s="4">
         <v>610</v>
@@ -1727,8 +1743,8 @@
       <c r="G21" s="4">
         <v>696</v>
       </c>
-      <c r="H21" s="4">
-        <v>1.0609999999999999</v>
+      <c r="H21" s="5">
+        <v>1061</v>
       </c>
       <c r="I21" s="4">
         <v>166</v>
@@ -1742,8 +1758,8 @@
       <c r="L21" s="4">
         <v>33</v>
       </c>
-      <c r="M21" s="5">
-        <v>5.617</v>
+      <c r="M21" s="6">
+        <v>5617</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1759,8 +1775,8 @@
       <c r="D22" s="4">
         <v>43</v>
       </c>
-      <c r="E22" s="4">
-        <v>1.1000000000000001</v>
+      <c r="E22" s="5">
+        <v>1100</v>
       </c>
       <c r="F22" s="4">
         <v>686</v>
@@ -1768,8 +1784,8 @@
       <c r="G22" s="4">
         <v>789</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.1930000000000001</v>
+      <c r="H22" s="5">
+        <v>1193</v>
       </c>
       <c r="I22" s="4">
         <v>472</v>
@@ -1783,8 +1799,8 @@
       <c r="L22" s="4">
         <v>20</v>
       </c>
-      <c r="M22" s="5">
-        <v>4.38</v>
+      <c r="M22" s="6">
+        <v>4380</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1798,8 +1814,8 @@
       <c r="D23" s="4">
         <v>530</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.8220000000000001</v>
+      <c r="E23" s="5">
+        <v>1822</v>
       </c>
       <c r="F23" s="4">
         <v>306</v>
@@ -1822,8 +1838,8 @@
       <c r="L23" s="4">
         <v>34</v>
       </c>
-      <c r="M23" s="5">
-        <v>4.68</v>
+      <c r="M23" s="6">
+        <v>4680</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1839,8 +1855,8 @@
       <c r="D24" s="4">
         <v>135</v>
       </c>
-      <c r="E24" s="4">
-        <v>1.413</v>
+      <c r="E24" s="5">
+        <v>1413</v>
       </c>
       <c r="F24" s="4">
         <v>356</v>
@@ -1863,8 +1879,8 @@
       <c r="L24" s="4">
         <v>21</v>
       </c>
-      <c r="M24" s="5">
-        <v>3.4529999999999998</v>
+      <c r="M24" s="6">
+        <v>3453</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1872,14 +1888,14 @@
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.163</v>
+      <c r="C25" s="5">
+        <v>1163</v>
       </c>
       <c r="D25" s="4">
         <v>495</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.0549999999999999</v>
+      <c r="E25" s="5">
+        <v>1055</v>
       </c>
       <c r="F25" s="4">
         <v>122</v>
@@ -1902,8 +1918,8 @@
       <c r="L25" s="4">
         <v>40</v>
       </c>
-      <c r="M25" s="5">
-        <v>3.4279999999999999</v>
+      <c r="M25" s="6">
+        <v>3428</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1919,8 +1935,8 @@
       <c r="D26" s="4">
         <v>230</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.264</v>
+      <c r="E26" s="5">
+        <v>1264</v>
       </c>
       <c r="F26" s="4">
         <v>137</v>
@@ -1943,8 +1959,8 @@
       <c r="L26" s="4">
         <v>9</v>
       </c>
-      <c r="M26" s="5">
-        <v>2.5470000000000002</v>
+      <c r="M26" s="6">
+        <v>2547</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1952,8 +1968,8 @@
       <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
-        <v>1.714</v>
+      <c r="C27" s="5">
+        <v>1714</v>
       </c>
       <c r="D27" s="4">
         <v>438</v>
@@ -1982,8 +1998,8 @@
       <c r="L27" s="4">
         <v>22</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.0720000000000001</v>
+      <c r="M27" s="6">
+        <v>3072</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2023,8 +2039,8 @@
       <c r="L28" s="4">
         <v>9</v>
       </c>
-      <c r="M28" s="5">
-        <v>2.653</v>
+      <c r="M28" s="6">
+        <v>2653</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2032,8 +2048,8 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>3.1190000000000002</v>
+      <c r="C29" s="5">
+        <v>3119</v>
       </c>
       <c r="D29" s="4">
         <v>376</v>
@@ -2062,54 +2078,54 @@
       <c r="L29" s="4">
         <v>39</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.0720000000000001</v>
+      <c r="M29" s="6">
+        <v>4072</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>8.7629999999999999</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.6719999999999997</v>
-      </c>
-      <c r="E30" s="5">
-        <v>24.059000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>17.501000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>28.516999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>59.176000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>38.594999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>8763</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4672</v>
+      </c>
+      <c r="E30" s="6">
+        <v>24059</v>
+      </c>
+      <c r="F30" s="6">
+        <v>17501</v>
+      </c>
+      <c r="G30" s="6">
+        <v>28517</v>
+      </c>
+      <c r="H30" s="6">
+        <v>59176</v>
+      </c>
+      <c r="I30" s="6">
+        <v>38595</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4182</v>
+      </c>
+      <c r="K30" s="8">
         <v>537</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>861</v>
       </c>
-      <c r="M30" s="5">
-        <v>186.863</v>
+      <c r="M30" s="6">
+        <v>186863</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,11 +2179,11 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2.6909999999999998</v>
+      <c r="G32" s="5">
+        <v>1293</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2691</v>
       </c>
       <c r="I32" s="4">
         <v>439</v>
@@ -2181,8 +2197,8 @@
       <c r="L32" s="4">
         <v>47</v>
       </c>
-      <c r="M32" s="5">
-        <v>4.5330000000000004</v>
+      <c r="M32" s="6">
+        <v>4533</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2205,8 +2221,8 @@
       <c r="G33" s="4">
         <v>988</v>
       </c>
-      <c r="H33" s="4">
-        <v>2.6560000000000001</v>
+      <c r="H33" s="5">
+        <v>2656</v>
       </c>
       <c r="I33" s="4">
         <v>641</v>
@@ -2220,8 +2236,8 @@
       <c r="L33" s="4">
         <v>25</v>
       </c>
-      <c r="M33" s="5">
-        <v>4.3659999999999997</v>
+      <c r="M33" s="6">
+        <v>4366</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2261,8 +2277,8 @@
       <c r="L34" s="4">
         <v>13</v>
       </c>
-      <c r="M34" s="5">
-        <v>2.702</v>
+      <c r="M34" s="6">
+        <v>2702</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2300,8 +2316,8 @@
       <c r="L35" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <v>2.4660000000000002</v>
+      <c r="M35" s="6">
+        <v>2466</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,8 +2357,8 @@
       <c r="L36" s="4">
         <v>14</v>
       </c>
-      <c r="M36" s="5">
-        <v>2.3860000000000001</v>
+      <c r="M36" s="6">
+        <v>2386</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,8 +2396,8 @@
       <c r="L37" s="4">
         <v>10</v>
       </c>
-      <c r="M37" s="5">
-        <v>2.2320000000000002</v>
+      <c r="M37" s="6">
+        <v>2232</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2421,8 +2437,8 @@
       <c r="L38" s="4">
         <v>31</v>
       </c>
-      <c r="M38" s="5">
-        <v>2.4460000000000002</v>
+      <c r="M38" s="6">
+        <v>2446</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,8 +2476,8 @@
       <c r="L39" s="4">
         <v>14</v>
       </c>
-      <c r="M39" s="5">
-        <v>2.226</v>
+      <c r="M39" s="6">
+        <v>2226</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,8 +2517,8 @@
       <c r="L40" s="4">
         <v>35</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.6190000000000002</v>
+      <c r="M40" s="6">
+        <v>2619</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2516,8 +2532,8 @@
       <c r="D41" s="4">
         <v>60</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.206</v>
+      <c r="E41" s="5">
+        <v>1206</v>
       </c>
       <c r="F41" s="4">
         <v>301</v>
@@ -2540,8 +2556,8 @@
       <c r="L41" s="4">
         <v>17</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.516</v>
+      <c r="M41" s="6">
+        <v>2516</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2581,8 +2597,8 @@
       <c r="L42" s="4">
         <v>26</v>
       </c>
-      <c r="M42" s="5">
-        <v>2.2469999999999999</v>
+      <c r="M42" s="6">
+        <v>2247</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2596,8 +2612,8 @@
       <c r="D43" s="4">
         <v>87</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.216</v>
+      <c r="E43" s="5">
+        <v>1216</v>
       </c>
       <c r="F43" s="4">
         <v>289</v>
@@ -2620,8 +2636,8 @@
       <c r="L43" s="4">
         <v>16</v>
       </c>
-      <c r="M43" s="5">
-        <v>2.2789999999999999</v>
+      <c r="M43" s="6">
+        <v>2279</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2661,8 +2677,8 @@
       <c r="L44" s="4">
         <v>36</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.1230000000000002</v>
+      <c r="M44" s="6">
+        <v>2123</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,8 +2692,8 @@
       <c r="D45" s="4">
         <v>168</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.0289999999999999</v>
+      <c r="E45" s="5">
+        <v>1029</v>
       </c>
       <c r="F45" s="4">
         <v>246</v>
@@ -2700,8 +2716,8 @@
       <c r="L45" s="4">
         <v>19</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.978</v>
+      <c r="M45" s="6">
+        <v>1978</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,8 +2757,8 @@
       <c r="L46" s="4">
         <v>28</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.913</v>
+      <c r="M46" s="6">
+        <v>1913</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,8 +2796,8 @@
       <c r="L47" s="4">
         <v>15</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.75</v>
+      <c r="M47" s="6">
+        <v>1750</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,8 +2837,8 @@
       <c r="L48" s="4">
         <v>17</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.698</v>
+      <c r="M48" s="6">
+        <v>1698</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2860,8 +2876,8 @@
       <c r="L49" s="4">
         <v>18</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.5249999999999999</v>
+      <c r="M49" s="6">
+        <v>1525</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,8 +2917,8 @@
       <c r="L50" s="4">
         <v>16</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.3979999999999999</v>
+      <c r="M50" s="6">
+        <v>1398</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2940,8 +2956,8 @@
       <c r="L51" s="4">
         <v>11</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.427</v>
+      <c r="M51" s="6">
+        <v>1427</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2981,8 +2997,8 @@
       <c r="L52" s="4">
         <v>8</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M52" s="6">
+        <v>1033</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3020,8 +3036,8 @@
       <c r="L53" s="4">
         <v>11</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.282</v>
+      <c r="M53" s="6">
+        <v>1282</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3061,8 +3077,8 @@
       <c r="L54" s="4">
         <v>6</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.2</v>
+      <c r="M54" s="6">
+        <v>1200</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3070,8 +3086,8 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.3979999999999999</v>
+      <c r="C55" s="5">
+        <v>1398</v>
       </c>
       <c r="D55" s="4">
         <v>278</v>
@@ -3100,54 +3116,54 @@
       <c r="L55" s="4">
         <v>13</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.0070000000000001</v>
+      <c r="M55" s="6">
+        <v>2007</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="E56" s="5">
-        <v>12.837</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4.9059999999999997</v>
-      </c>
-      <c r="G56" s="5">
-        <v>7.8979999999999997</v>
-      </c>
-      <c r="H56" s="5">
-        <v>13.032999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>6.4770000000000003</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>3537</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2542</v>
+      </c>
+      <c r="E56" s="6">
+        <v>12837</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4906</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7898</v>
+      </c>
+      <c r="H56" s="6">
+        <v>13033</v>
+      </c>
+      <c r="I56" s="6">
+        <v>6477</v>
+      </c>
+      <c r="J56" s="8">
         <v>634</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>34</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>454</v>
       </c>
-      <c r="M56" s="5">
-        <v>52.351999999999997</v>
+      <c r="M56" s="6">
+        <v>52352</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3235,7 @@
       <c r="L58" s="4">
         <v>2</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>835</v>
       </c>
     </row>
@@ -3258,7 +3274,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="8">
         <v>819</v>
       </c>
     </row>
@@ -3299,7 +3315,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="8">
         <v>543</v>
       </c>
     </row>
@@ -3338,7 +3354,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="8">
         <v>500</v>
       </c>
     </row>
@@ -3379,7 +3395,7 @@
       <c r="L62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="8">
         <v>443</v>
       </c>
     </row>
@@ -3418,7 +3434,7 @@
       <c r="L63" s="4">
         <v>1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="8">
         <v>449</v>
       </c>
     </row>
@@ -3459,7 +3475,7 @@
       <c r="L64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="8">
         <v>485</v>
       </c>
     </row>
@@ -3498,7 +3514,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="8">
         <v>481</v>
       </c>
     </row>
@@ -3539,7 +3555,7 @@
       <c r="L66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="8">
         <v>555</v>
       </c>
     </row>
@@ -3578,7 +3594,7 @@
       <c r="L67" s="4">
         <v>1</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="8">
         <v>473</v>
       </c>
     </row>
@@ -3619,7 +3635,7 @@
       <c r="L68" s="4">
         <v>5</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="8">
         <v>495</v>
       </c>
     </row>
@@ -3658,7 +3674,7 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="8">
         <v>455</v>
       </c>
     </row>
@@ -3699,7 +3715,7 @@
       <c r="L70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="8">
         <v>480</v>
       </c>
     </row>
@@ -3738,7 +3754,7 @@
       <c r="L71" s="4">
         <v>1</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="8">
         <v>407</v>
       </c>
     </row>
@@ -3779,7 +3795,7 @@
       <c r="L72" s="4">
         <v>1</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="8">
         <v>384</v>
       </c>
     </row>
@@ -3818,7 +3834,7 @@
       <c r="L73" s="4">
         <v>1</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="8">
         <v>355</v>
       </c>
     </row>
@@ -3859,7 +3875,7 @@
       <c r="L74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="8">
         <v>278</v>
       </c>
     </row>
@@ -3898,7 +3914,7 @@
       <c r="L75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="8">
         <v>282</v>
       </c>
     </row>
@@ -3939,7 +3955,7 @@
       <c r="L76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>236</v>
       </c>
     </row>
@@ -3978,7 +3994,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>240</v>
       </c>
     </row>
@@ -4019,7 +4035,7 @@
       <c r="L78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>241</v>
       </c>
     </row>
@@ -4058,7 +4074,7 @@
       <c r="L79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>243</v>
       </c>
     </row>
@@ -4099,7 +4115,7 @@
       <c r="L80" s="4">
         <v>1</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>280</v>
       </c>
     </row>
@@ -4138,7 +4154,7 @@
       <c r="L81" s="4">
         <v>2</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>361</v>
       </c>
     </row>
@@ -4146,46 +4162,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>649</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>522</v>
       </c>
-      <c r="E82" s="5">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>2168</v>
+      </c>
+      <c r="F82" s="8">
         <v>758</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.1320000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.611</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="G82" s="6">
+        <v>1313</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3132</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1611</v>
+      </c>
+      <c r="J82" s="8">
         <v>145</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>3</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>19</v>
       </c>
-      <c r="M82" s="5">
-        <v>10.32</v>
+      <c r="M82" s="6">
+        <v>10320</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4257,8 +4273,8 @@
       <c r="L84" s="4">
         <v>10</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.153</v>
+      <c r="M84" s="6">
+        <v>1153</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4296,7 +4312,7 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="8">
         <v>941</v>
       </c>
     </row>
@@ -4337,7 +4353,7 @@
       <c r="L86" s="4">
         <v>2</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="8">
         <v>666</v>
       </c>
     </row>
@@ -4376,7 +4392,7 @@
       <c r="L87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="8">
         <v>473</v>
       </c>
     </row>
@@ -4417,7 +4433,7 @@
       <c r="L88" s="4">
         <v>3</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="8">
         <v>451</v>
       </c>
     </row>
@@ -4456,7 +4472,7 @@
       <c r="L89" s="4">
         <v>1</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="8">
         <v>389</v>
       </c>
     </row>
@@ -4497,7 +4513,7 @@
       <c r="L90" s="4">
         <v>4</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="8">
         <v>397</v>
       </c>
     </row>
@@ -4536,7 +4552,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="8">
         <v>367</v>
       </c>
     </row>
@@ -4577,7 +4593,7 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="8">
         <v>395</v>
       </c>
     </row>
@@ -4616,7 +4632,7 @@
       <c r="L93" s="4">
         <v>3</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="8">
         <v>383</v>
       </c>
     </row>
@@ -4657,7 +4673,7 @@
       <c r="L94" s="4">
         <v>2</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="8">
         <v>301</v>
       </c>
     </row>
@@ -4696,7 +4712,7 @@
       <c r="L95" s="4">
         <v>1</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="8">
         <v>345</v>
       </c>
     </row>
@@ -4737,7 +4753,7 @@
       <c r="L96" s="4">
         <v>2</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="8">
         <v>348</v>
       </c>
     </row>
@@ -4776,7 +4792,7 @@
       <c r="L97" s="4">
         <v>5</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="8">
         <v>331</v>
       </c>
     </row>
@@ -4817,7 +4833,7 @@
       <c r="L98" s="4">
         <v>3</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="8">
         <v>332</v>
       </c>
     </row>
@@ -4856,7 +4872,7 @@
       <c r="L99" s="4">
         <v>5</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="8">
         <v>338</v>
       </c>
     </row>
@@ -4897,7 +4913,7 @@
       <c r="L100" s="4">
         <v>1</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="8">
         <v>300</v>
       </c>
     </row>
@@ -4936,7 +4952,7 @@
       <c r="L101" s="4">
         <v>6</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="8">
         <v>352</v>
       </c>
     </row>
@@ -4977,7 +4993,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="8">
         <v>276</v>
       </c>
     </row>
@@ -5016,7 +5032,7 @@
       <c r="L103" s="4">
         <v>4</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="8">
         <v>327</v>
       </c>
     </row>
@@ -5057,7 +5073,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="8">
         <v>251</v>
       </c>
     </row>
@@ -5096,7 +5112,7 @@
       <c r="L105" s="4">
         <v>7</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="8">
         <v>365</v>
       </c>
     </row>
@@ -5137,7 +5153,7 @@
       <c r="L106" s="4">
         <v>4</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="8">
         <v>497</v>
       </c>
     </row>
@@ -5176,7 +5192,7 @@
       <c r="L107" s="4">
         <v>9</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="8">
         <v>707</v>
       </c>
     </row>
@@ -5184,46 +5200,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="D108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
+        <v>1715</v>
+      </c>
+      <c r="D108" s="8">
         <v>983</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="F108" s="5">
+      <c r="E108" s="6">
+        <v>2437</v>
+      </c>
+      <c r="F108" s="8">
         <v>748</v>
       </c>
-      <c r="G108" s="5">
-        <v>2.444</v>
-      </c>
-      <c r="H108" s="5">
-        <v>1.526</v>
-      </c>
-      <c r="I108" s="5">
+      <c r="G108" s="6">
+        <v>2444</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1526</v>
+      </c>
+      <c r="I108" s="8">
         <v>682</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="8">
         <v>71</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="8">
         <v>2</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>77</v>
       </c>
-      <c r="M108" s="5">
-        <v>10.685</v>
+      <c r="M108" s="6">
+        <v>10685</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5280,8 +5296,8 @@
       <c r="G110" s="4">
         <v>646</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.4179999999999999</v>
+      <c r="H110" s="5">
+        <v>1418</v>
       </c>
       <c r="I110" s="4">
         <v>292</v>
@@ -5295,8 +5311,8 @@
       <c r="L110" s="4">
         <v>29</v>
       </c>
-      <c r="M110" s="5">
-        <v>2.415</v>
+      <c r="M110" s="6">
+        <v>2415</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5319,8 +5335,8 @@
       <c r="G111" s="4">
         <v>505</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.3779999999999999</v>
+      <c r="H111" s="5">
+        <v>1378</v>
       </c>
       <c r="I111" s="4">
         <v>375</v>
@@ -5334,8 +5350,8 @@
       <c r="L111" s="4">
         <v>13</v>
       </c>
-      <c r="M111" s="5">
-        <v>2.3149999999999999</v>
+      <c r="M111" s="6">
+        <v>2315</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5375,8 +5391,8 @@
       <c r="L112" s="4">
         <v>14</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.7609999999999999</v>
+      <c r="M112" s="6">
+        <v>1761</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5414,8 +5430,8 @@
       <c r="L113" s="4">
         <v>8</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.5880000000000001</v>
+      <c r="M113" s="6">
+        <v>1588</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5455,8 +5471,8 @@
       <c r="L114" s="4">
         <v>10</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M114" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,8 +5510,8 @@
       <c r="L115" s="4">
         <v>6</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.456</v>
+      <c r="M115" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5535,8 +5551,8 @@
       <c r="L116" s="4">
         <v>21</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.7849999999999999</v>
+      <c r="M116" s="6">
+        <v>1785</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5574,8 +5590,8 @@
       <c r="L117" s="4">
         <v>10</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.51</v>
+      <c r="M117" s="6">
+        <v>1510</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5615,8 +5631,8 @@
       <c r="L118" s="4">
         <v>14</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.6930000000000001</v>
+      <c r="M118" s="6">
+        <v>1693</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5654,8 +5670,8 @@
       <c r="L119" s="4">
         <v>14</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.653</v>
+      <c r="M119" s="6">
+        <v>1653</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5695,8 +5711,8 @@
       <c r="L120" s="4">
         <v>31</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.589</v>
+      <c r="M120" s="6">
+        <v>1589</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5734,8 +5750,8 @@
       <c r="L121" s="4">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.514</v>
+      <c r="M121" s="6">
+        <v>1514</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5775,8 +5791,8 @@
       <c r="L122" s="4">
         <v>25</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.42</v>
+      <c r="M122" s="6">
+        <v>1420</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5814,8 +5830,8 @@
       <c r="L123" s="4">
         <v>19</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.349</v>
+      <c r="M123" s="6">
+        <v>1349</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5855,8 +5871,8 @@
       <c r="L124" s="4">
         <v>39</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M124" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5894,8 +5910,8 @@
       <c r="L125" s="4">
         <v>27</v>
       </c>
-      <c r="M125" s="5">
-        <v>1.1879999999999999</v>
+      <c r="M125" s="6">
+        <v>1188</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5935,8 +5951,8 @@
       <c r="L126" s="4">
         <v>49</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.129</v>
+      <c r="M126" s="6">
+        <v>1129</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5974,8 +5990,8 @@
       <c r="L127" s="4">
         <v>28</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.032</v>
+      <c r="M127" s="6">
+        <v>1032</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6015,7 +6031,7 @@
       <c r="L128" s="4">
         <v>32</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>881</v>
       </c>
     </row>
@@ -6054,7 +6070,7 @@
       <c r="L129" s="4">
         <v>16</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>882</v>
       </c>
     </row>
@@ -6095,7 +6111,7 @@
       <c r="L130" s="4">
         <v>24</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>660</v>
       </c>
     </row>
@@ -6134,7 +6150,7 @@
       <c r="L131" s="4">
         <v>15</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>808</v>
       </c>
     </row>
@@ -6175,7 +6191,7 @@
       <c r="L132" s="4">
         <v>12</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>859</v>
       </c>
     </row>
@@ -6214,54 +6230,54 @@
       <c r="L133" s="4">
         <v>17</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.2509999999999999</v>
+      <c r="M133" s="6">
+        <v>1251</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="E134" s="5">
-        <v>6.8949999999999996</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4.0709999999999997</v>
-      </c>
-      <c r="G134" s="5">
-        <v>5.1420000000000003</v>
-      </c>
-      <c r="H134" s="5">
-        <v>8.3689999999999998</v>
-      </c>
-      <c r="I134" s="5">
-        <v>4.952</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
+        <v>1709</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1340</v>
+      </c>
+      <c r="E134" s="6">
+        <v>6895</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4071</v>
+      </c>
+      <c r="G134" s="6">
+        <v>5142</v>
+      </c>
+      <c r="H134" s="6">
+        <v>8369</v>
+      </c>
+      <c r="I134" s="6">
+        <v>4952</v>
+      </c>
+      <c r="J134" s="8">
         <v>503</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>27</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>488</v>
       </c>
-      <c r="M134" s="5">
-        <v>33.496000000000002</v>
+      <c r="M134" s="6">
+        <v>33496</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6315,11 +6331,11 @@
       <c r="F136" s="4">
         <v>1</v>
       </c>
-      <c r="G136" s="4">
-        <v>3.1989999999999998</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.851</v>
+      <c r="G136" s="5">
+        <v>3199</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4851</v>
       </c>
       <c r="I136" s="4">
         <v>801</v>
@@ -6333,8 +6349,8 @@
       <c r="L136" s="4">
         <v>70</v>
       </c>
-      <c r="M136" s="5">
-        <v>9.0470000000000006</v>
+      <c r="M136" s="6">
+        <v>9047</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6354,11 +6370,11 @@
       <c r="F137" s="4">
         <v>2</v>
       </c>
-      <c r="G137" s="4">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.67</v>
+      <c r="G137" s="5">
+        <v>2844</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4670</v>
       </c>
       <c r="I137" s="4">
         <v>897</v>
@@ -6372,8 +6388,8 @@
       <c r="L137" s="4">
         <v>4</v>
       </c>
-      <c r="M137" s="5">
-        <v>8.5519999999999996</v>
+      <c r="M137" s="6">
+        <v>8552</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6395,14 +6411,14 @@
       <c r="F138" s="4">
         <v>85</v>
       </c>
-      <c r="G138" s="4">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="H138" s="4">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.38</v>
+      <c r="G138" s="5">
+        <v>1979</v>
+      </c>
+      <c r="H138" s="5">
+        <v>1817</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1380</v>
       </c>
       <c r="J138" s="4">
         <v>82</v>
@@ -6413,8 +6429,8 @@
       <c r="L138" s="4">
         <v>10</v>
       </c>
-      <c r="M138" s="5">
-        <v>5.5049999999999999</v>
+      <c r="M138" s="6">
+        <v>5505</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6434,14 +6450,14 @@
       <c r="F139" s="4">
         <v>145</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.224</v>
-      </c>
-      <c r="I139" s="4">
-        <v>1.548</v>
+      <c r="G139" s="5">
+        <v>1783</v>
+      </c>
+      <c r="H139" s="5">
+        <v>1224</v>
+      </c>
+      <c r="I139" s="5">
+        <v>1548</v>
       </c>
       <c r="J139" s="4">
         <v>101</v>
@@ -6452,8 +6468,8 @@
       <c r="L139" s="4">
         <v>8</v>
       </c>
-      <c r="M139" s="5">
-        <v>5.2480000000000002</v>
+      <c r="M139" s="6">
+        <v>5248</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,11 +6494,11 @@
       <c r="G140" s="4">
         <v>909</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.264</v>
+      <c r="H140" s="5">
+        <v>1495</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1264</v>
       </c>
       <c r="J140" s="4">
         <v>175</v>
@@ -6493,8 +6509,8 @@
       <c r="L140" s="4">
         <v>15</v>
       </c>
-      <c r="M140" s="5">
-        <v>5.0519999999999996</v>
+      <c r="M140" s="6">
+        <v>5052</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6511,8 +6527,8 @@
       <c r="E141" s="4">
         <v>312</v>
       </c>
-      <c r="F141" s="4">
-        <v>1.145</v>
+      <c r="F141" s="5">
+        <v>1145</v>
       </c>
       <c r="G141" s="4">
         <v>636</v>
@@ -6532,8 +6548,8 @@
       <c r="L141" s="4">
         <v>4</v>
       </c>
-      <c r="M141" s="5">
-        <v>4.4630000000000001</v>
+      <c r="M141" s="6">
+        <v>4463</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6558,8 +6574,8 @@
       <c r="G142" s="4">
         <v>603</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.425</v>
+      <c r="H142" s="5">
+        <v>1425</v>
       </c>
       <c r="I142" s="4">
         <v>936</v>
@@ -6573,8 +6589,8 @@
       <c r="L142" s="4">
         <v>11</v>
       </c>
-      <c r="M142" s="5">
-        <v>4.6059999999999999</v>
+      <c r="M142" s="6">
+        <v>4606</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6588,8 +6604,8 @@
       <c r="D143" s="4">
         <v>252</v>
       </c>
-      <c r="E143" s="4">
-        <v>1.1639999999999999</v>
+      <c r="E143" s="5">
+        <v>1164</v>
       </c>
       <c r="F143" s="4">
         <v>860</v>
@@ -6612,8 +6628,8 @@
       <c r="L143" s="4">
         <v>19</v>
       </c>
-      <c r="M143" s="5">
-        <v>4.1050000000000004</v>
+      <c r="M143" s="6">
+        <v>4105</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6638,8 +6654,8 @@
       <c r="G144" s="4">
         <v>774</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.1859999999999999</v>
+      <c r="H144" s="5">
+        <v>1186</v>
       </c>
       <c r="I144" s="4">
         <v>643</v>
@@ -6653,8 +6669,8 @@
       <c r="L144" s="4">
         <v>14</v>
       </c>
-      <c r="M144" s="5">
-        <v>4.0110000000000001</v>
+      <c r="M144" s="6">
+        <v>4011</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6668,8 +6684,8 @@
       <c r="D145" s="4">
         <v>192</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.6639999999999999</v>
+      <c r="E145" s="5">
+        <v>1664</v>
       </c>
       <c r="F145" s="4">
         <v>532</v>
@@ -6692,8 +6708,8 @@
       <c r="L145" s="4">
         <v>12</v>
       </c>
-      <c r="M145" s="5">
-        <v>3.8919999999999999</v>
+      <c r="M145" s="6">
+        <v>3892</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6733,8 +6749,8 @@
       <c r="L146" s="4">
         <v>5</v>
       </c>
-      <c r="M146" s="5">
-        <v>3.1829999999999998</v>
+      <c r="M146" s="6">
+        <v>3183</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6748,8 +6764,8 @@
       <c r="D147" s="4">
         <v>189</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.4330000000000001</v>
+      <c r="E147" s="5">
+        <v>1433</v>
       </c>
       <c r="F147" s="4">
         <v>431</v>
@@ -6772,8 +6788,8 @@
       <c r="L147" s="4">
         <v>11</v>
       </c>
-      <c r="M147" s="5">
-        <v>3.1779999999999999</v>
+      <c r="M147" s="6">
+        <v>3178</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6813,8 +6829,8 @@
       <c r="L148" s="4">
         <v>6</v>
       </c>
-      <c r="M148" s="5">
-        <v>2.69</v>
+      <c r="M148" s="6">
+        <v>2690</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6828,8 +6844,8 @@
       <c r="D149" s="4">
         <v>266</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.254</v>
+      <c r="E149" s="5">
+        <v>1254</v>
       </c>
       <c r="F149" s="4">
         <v>322</v>
@@ -6852,8 +6868,8 @@
       <c r="L149" s="4">
         <v>9</v>
       </c>
-      <c r="M149" s="5">
-        <v>2.7320000000000002</v>
+      <c r="M149" s="6">
+        <v>2732</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6893,8 +6909,8 @@
       <c r="L150" s="4">
         <v>7</v>
       </c>
-      <c r="M150" s="5">
-        <v>2.4209999999999998</v>
+      <c r="M150" s="6">
+        <v>2421</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6932,8 +6948,8 @@
       <c r="L151" s="4">
         <v>9</v>
       </c>
-      <c r="M151" s="5">
-        <v>2.0590000000000002</v>
+      <c r="M151" s="6">
+        <v>2059</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6973,8 +6989,8 @@
       <c r="L152" s="4">
         <v>2</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.8069999999999999</v>
+      <c r="M152" s="6">
+        <v>1807</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7012,8 +7028,8 @@
       <c r="L153" s="4">
         <v>9</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.885</v>
+      <c r="M153" s="6">
+        <v>1885</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7053,8 +7069,8 @@
       <c r="L154" s="4">
         <v>5</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.462</v>
+      <c r="M154" s="6">
+        <v>1462</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7092,8 +7108,8 @@
       <c r="L155" s="4">
         <v>12</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.645</v>
+      <c r="M155" s="6">
+        <v>1645</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7133,8 +7149,8 @@
       <c r="L156" s="4">
         <v>7</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.139</v>
+      <c r="M156" s="6">
+        <v>1139</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7172,8 +7188,8 @@
       <c r="L157" s="4">
         <v>18</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.371</v>
+      <c r="M157" s="6">
+        <v>1371</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7213,8 +7229,8 @@
       <c r="L158" s="4">
         <v>4</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.4419999999999999</v>
+      <c r="M158" s="6">
+        <v>1442</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7222,8 +7238,8 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.681</v>
+      <c r="C159" s="5">
+        <v>1681</v>
       </c>
       <c r="D159" s="4">
         <v>164</v>
@@ -7252,54 +7268,54 @@
       <c r="L159" s="4">
         <v>30</v>
       </c>
-      <c r="M159" s="5">
-        <v>2.0840000000000001</v>
+      <c r="M159" s="6">
+        <v>2084</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>5.5069999999999997</v>
-      </c>
-      <c r="D160" s="5">
-        <v>3.69</v>
-      </c>
-      <c r="E160" s="5">
-        <v>15.016</v>
-      </c>
-      <c r="F160" s="5">
-        <v>8.0839999999999996</v>
-      </c>
-      <c r="G160" s="5">
-        <v>17.41</v>
-      </c>
-      <c r="H160" s="5">
-        <v>22.224</v>
-      </c>
-      <c r="I160" s="5">
-        <v>10.388999999999999</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>5507</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3690</v>
+      </c>
+      <c r="E160" s="6">
+        <v>15016</v>
+      </c>
+      <c r="F160" s="6">
+        <v>8084</v>
+      </c>
+      <c r="G160" s="6">
+        <v>17410</v>
+      </c>
+      <c r="H160" s="6">
+        <v>22224</v>
+      </c>
+      <c r="I160" s="6">
+        <v>10389</v>
+      </c>
+      <c r="J160" s="8">
         <v>910</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>48</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>301</v>
       </c>
-      <c r="M160" s="5">
-        <v>83.578999999999994</v>
+      <c r="M160" s="6">
+        <v>83579</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7365,13 +7381,13 @@
       <c r="J162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K162" s="4" t="s">
-        <v>15</v>
+      <c r="K162" s="4">
+        <v>0</v>
       </c>
       <c r="L162" s="4">
         <v>2</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="8">
         <v>437</v>
       </c>
     </row>
@@ -7404,13 +7420,13 @@
       <c r="J163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>15</v>
+      <c r="K163" s="4">
+        <v>0</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="8">
         <v>397</v>
       </c>
     </row>
@@ -7445,13 +7461,13 @@
       <c r="J164" s="4">
         <v>6</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>15</v>
+      <c r="K164" s="4">
+        <v>0</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="8">
         <v>277</v>
       </c>
     </row>
@@ -7484,13 +7500,13 @@
       <c r="J165" s="4">
         <v>3</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>15</v>
+      <c r="K165" s="4">
+        <v>0</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="8">
         <v>199</v>
       </c>
     </row>
@@ -7525,13 +7541,13 @@
       <c r="J166" s="4">
         <v>4</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>15</v>
+      <c r="K166" s="4">
+        <v>0</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="8">
         <v>216</v>
       </c>
     </row>
@@ -7564,13 +7580,13 @@
       <c r="J167" s="4">
         <v>4</v>
       </c>
-      <c r="K167" s="4" t="s">
-        <v>15</v>
+      <c r="K167" s="4">
+        <v>0</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="8">
         <v>149</v>
       </c>
     </row>
@@ -7605,13 +7621,13 @@
       <c r="J168" s="4">
         <v>7</v>
       </c>
-      <c r="K168" s="4" t="s">
-        <v>15</v>
+      <c r="K168" s="4">
+        <v>0</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="8">
         <v>170</v>
       </c>
     </row>
@@ -7644,13 +7660,13 @@
       <c r="J169" s="4">
         <v>1</v>
       </c>
-      <c r="K169" s="4" t="s">
-        <v>15</v>
+      <c r="K169" s="4">
+        <v>0</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="8">
         <v>160</v>
       </c>
     </row>
@@ -7685,13 +7701,13 @@
       <c r="J170" s="4">
         <v>7</v>
       </c>
-      <c r="K170" s="4" t="s">
-        <v>15</v>
+      <c r="K170" s="4">
+        <v>0</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="8">
         <v>199</v>
       </c>
     </row>
@@ -7724,13 +7740,13 @@
       <c r="J171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K171" s="4" t="s">
-        <v>15</v>
+      <c r="K171" s="4">
+        <v>0</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="8">
         <v>204</v>
       </c>
     </row>
@@ -7765,13 +7781,13 @@
       <c r="J172" s="4">
         <v>3</v>
       </c>
-      <c r="K172" s="4" t="s">
-        <v>15</v>
+      <c r="K172" s="4">
+        <v>0</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="8">
         <v>176</v>
       </c>
     </row>
@@ -7804,13 +7820,13 @@
       <c r="J173" s="4">
         <v>1</v>
       </c>
-      <c r="K173" s="4" t="s">
-        <v>15</v>
+      <c r="K173" s="4">
+        <v>0</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="8">
         <v>174</v>
       </c>
     </row>
@@ -7845,13 +7861,13 @@
       <c r="J174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K174" s="4" t="s">
-        <v>15</v>
+      <c r="K174" s="4">
+        <v>0</v>
       </c>
       <c r="L174" s="4">
         <v>1</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="8">
         <v>169</v>
       </c>
     </row>
@@ -7884,13 +7900,13 @@
       <c r="J175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K175" s="4" t="s">
-        <v>15</v>
+      <c r="K175" s="4">
+        <v>0</v>
       </c>
       <c r="L175" s="4">
         <v>1</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="8">
         <v>162</v>
       </c>
     </row>
@@ -7925,13 +7941,13 @@
       <c r="J176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K176" s="4" t="s">
-        <v>15</v>
+      <c r="K176" s="4">
+        <v>0</v>
       </c>
       <c r="L176" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="8">
         <v>151</v>
       </c>
     </row>
@@ -7964,13 +7980,13 @@
       <c r="J177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K177" s="4" t="s">
-        <v>15</v>
+      <c r="K177" s="4">
+        <v>0</v>
       </c>
       <c r="L177" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="8">
         <v>135</v>
       </c>
     </row>
@@ -8005,13 +8021,13 @@
       <c r="J178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K178" s="4" t="s">
-        <v>15</v>
+      <c r="K178" s="4">
+        <v>0</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="8">
         <v>128</v>
       </c>
     </row>
@@ -8044,13 +8060,13 @@
       <c r="J179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K179" s="4" t="s">
-        <v>15</v>
+      <c r="K179" s="4">
+        <v>0</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="8">
         <v>128</v>
       </c>
     </row>
@@ -8085,13 +8101,13 @@
       <c r="J180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>15</v>
+      <c r="K180" s="4">
+        <v>0</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="8">
         <v>104</v>
       </c>
     </row>
@@ -8124,13 +8140,13 @@
       <c r="J181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K181" s="4" t="s">
-        <v>15</v>
+      <c r="K181" s="4">
+        <v>0</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="8">
         <v>122</v>
       </c>
     </row>
@@ -8165,13 +8181,13 @@
       <c r="J182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K182" s="4" t="s">
-        <v>15</v>
+      <c r="K182" s="4">
+        <v>0</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="8">
         <v>78</v>
       </c>
     </row>
@@ -8204,13 +8220,13 @@
       <c r="J183" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K183" s="4" t="s">
-        <v>15</v>
+      <c r="K183" s="4">
+        <v>0</v>
       </c>
       <c r="L183" s="4">
         <v>1</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="8">
         <v>109</v>
       </c>
     </row>
@@ -8245,13 +8261,13 @@
       <c r="J184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K184" s="4" t="s">
-        <v>15</v>
+      <c r="K184" s="4">
+        <v>0</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="8">
         <v>90</v>
       </c>
     </row>
@@ -8284,13 +8300,13 @@
       <c r="J185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K185" s="4" t="s">
-        <v>15</v>
+      <c r="K185" s="4">
+        <v>0</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="8">
         <v>157</v>
       </c>
     </row>
@@ -8298,46 +8314,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="8">
         <v>265</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="8">
         <v>140</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="8">
         <v>446</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="8">
         <v>436</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="8">
         <v>802</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.702</v>
-      </c>
-      <c r="I186" s="5">
+      <c r="H186" s="6">
+        <v>1702</v>
+      </c>
+      <c r="I186" s="8">
         <v>459</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="8">
         <v>36</v>
       </c>
-      <c r="K186" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="4">
+        <v>0</v>
+      </c>
+      <c r="L186" s="8">
         <v>5</v>
       </c>
-      <c r="M186" s="5">
-        <v>4.2910000000000004</v>
+      <c r="M186" s="6">
+        <v>4291</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8409,8 +8425,8 @@
       <c r="L188" s="4">
         <v>10</v>
       </c>
-      <c r="M188" s="5">
-        <v>1.123</v>
+      <c r="M188" s="6">
+        <v>1123</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8448,8 +8464,8 @@
       <c r="L189" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M189" s="5">
-        <v>1.137</v>
+      <c r="M189" s="6">
+        <v>1137</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8489,7 +8505,7 @@
       <c r="L190" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>677</v>
       </c>
     </row>
@@ -8528,7 +8544,7 @@
       <c r="L191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>546</v>
       </c>
     </row>
@@ -8569,7 +8585,7 @@
       <c r="L192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>553</v>
       </c>
     </row>
@@ -8608,7 +8624,7 @@
       <c r="L193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>484</v>
       </c>
     </row>
@@ -8649,7 +8665,7 @@
       <c r="L194" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>452</v>
       </c>
     </row>
@@ -8688,7 +8704,7 @@
       <c r="L195" s="4">
         <v>1</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>399</v>
       </c>
     </row>
@@ -8729,7 +8745,7 @@
       <c r="L196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>413</v>
       </c>
     </row>
@@ -8768,7 +8784,7 @@
       <c r="L197" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>460</v>
       </c>
     </row>
@@ -8809,7 +8825,7 @@
       <c r="L198" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>369</v>
       </c>
     </row>
@@ -8848,7 +8864,7 @@
       <c r="L199" s="4">
         <v>1</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>388</v>
       </c>
     </row>
@@ -8889,7 +8905,7 @@
       <c r="L200" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>378</v>
       </c>
     </row>
@@ -8928,7 +8944,7 @@
       <c r="L201" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>379</v>
       </c>
     </row>
@@ -8969,7 +8985,7 @@
       <c r="L202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>333</v>
       </c>
     </row>
@@ -9008,7 +9024,7 @@
       <c r="L203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>340</v>
       </c>
     </row>
@@ -9049,7 +9065,7 @@
       <c r="L204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>307</v>
       </c>
     </row>
@@ -9088,7 +9104,7 @@
       <c r="L205" s="4">
         <v>1</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>324</v>
       </c>
     </row>
@@ -9129,7 +9145,7 @@
       <c r="L206" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>282</v>
       </c>
     </row>
@@ -9168,7 +9184,7 @@
       <c r="L207" s="4">
         <v>1</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>333</v>
       </c>
     </row>
@@ -9209,7 +9225,7 @@
       <c r="L208" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>229</v>
       </c>
     </row>
@@ -9248,7 +9264,7 @@
       <c r="L209" s="4">
         <v>3</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>293</v>
       </c>
     </row>
@@ -9289,7 +9305,7 @@
       <c r="L210" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>354</v>
       </c>
     </row>
@@ -9328,7 +9344,7 @@
       <c r="L211" s="4">
         <v>7</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>420</v>
       </c>
     </row>
@@ -9336,46 +9352,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="D212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>1434</v>
+      </c>
+      <c r="D212" s="8">
         <v>660</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="E212" s="6">
+        <v>2168</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1247</v>
+      </c>
+      <c r="G212" s="6">
+        <v>2076</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2437</v>
+      </c>
+      <c r="I212" s="8">
         <v>848</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>75</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>4</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>24</v>
       </c>
-      <c r="M212" s="5">
-        <v>10.973000000000001</v>
+      <c r="M212" s="6">
+        <v>10973</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9447,7 +9463,7 @@
       <c r="L214" s="4">
         <v>8</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="8">
         <v>575</v>
       </c>
     </row>
@@ -9486,7 +9502,7 @@
       <c r="L215" s="4">
         <v>3</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="8">
         <v>516</v>
       </c>
     </row>
@@ -9527,7 +9543,7 @@
       <c r="L216" s="4">
         <v>2</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="8">
         <v>332</v>
       </c>
     </row>
@@ -9566,7 +9582,7 @@
       <c r="L217" s="4">
         <v>1</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="8">
         <v>250</v>
       </c>
     </row>
@@ -9607,7 +9623,7 @@
       <c r="L218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="8">
         <v>294</v>
       </c>
     </row>
@@ -9646,7 +9662,7 @@
       <c r="L219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="8">
         <v>221</v>
       </c>
     </row>
@@ -9687,7 +9703,7 @@
       <c r="L220" s="4">
         <v>2</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="8">
         <v>293</v>
       </c>
     </row>
@@ -9726,7 +9742,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="8">
         <v>265</v>
       </c>
     </row>
@@ -9767,7 +9783,7 @@
       <c r="L222" s="4">
         <v>3</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="8">
         <v>320</v>
       </c>
     </row>
@@ -9806,7 +9822,7 @@
       <c r="L223" s="4">
         <v>3</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="8">
         <v>299</v>
       </c>
     </row>
@@ -9847,7 +9863,7 @@
       <c r="L224" s="4">
         <v>3</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="8">
         <v>299</v>
       </c>
     </row>
@@ -9886,7 +9902,7 @@
       <c r="L225" s="4">
         <v>2</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="8">
         <v>304</v>
       </c>
     </row>
@@ -9927,7 +9943,7 @@
       <c r="L226" s="4">
         <v>4</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="8">
         <v>282</v>
       </c>
     </row>
@@ -9966,7 +9982,7 @@
       <c r="L227" s="4">
         <v>4</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="8">
         <v>285</v>
       </c>
     </row>
@@ -10007,7 +10023,7 @@
       <c r="L228" s="4">
         <v>2</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="8">
         <v>243</v>
       </c>
     </row>
@@ -10046,7 +10062,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="8">
         <v>207</v>
       </c>
     </row>
@@ -10087,7 +10103,7 @@
       <c r="L230" s="4">
         <v>4</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="8">
         <v>239</v>
       </c>
     </row>
@@ -10126,7 +10142,7 @@
       <c r="L231" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="8">
         <v>218</v>
       </c>
     </row>
@@ -10167,7 +10183,7 @@
       <c r="L232" s="4">
         <v>2</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="8">
         <v>161</v>
       </c>
     </row>
@@ -10206,7 +10222,7 @@
       <c r="L233" s="4">
         <v>2</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="8">
         <v>200</v>
       </c>
     </row>
@@ -10247,7 +10263,7 @@
       <c r="L234" s="4">
         <v>1</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="8">
         <v>179</v>
       </c>
     </row>
@@ -10286,7 +10302,7 @@
       <c r="L235" s="4">
         <v>2</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="8">
         <v>208</v>
       </c>
     </row>
@@ -10327,7 +10343,7 @@
       <c r="L236" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="8">
         <v>230</v>
       </c>
     </row>
@@ -10366,7 +10382,7 @@
       <c r="L237" s="4">
         <v>2</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="8">
         <v>324</v>
       </c>
     </row>
@@ -10374,39 +10390,49 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="8">
         <v>675</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="8">
         <v>354</v>
       </c>
-      <c r="E238" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F238" s="5">
+      <c r="E238" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F238" s="8">
         <v>668</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="H238" s="5">
-        <v>1.66</v>
-      </c>
-      <c r="I238" s="5">
+      <c r="G238" s="6">
+        <v>1170</v>
+      </c>
+      <c r="H238" s="6">
+        <v>1660</v>
+      </c>
+      <c r="I238" s="8">
         <v>626</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="8">
         <v>36</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>2</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="8">
         <v>53</v>
       </c>
-      <c r="M238" s="5">
-        <v>6.7439999999999998</v>
+      <c r="M238" s="6">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
